--- a/Plantilla Product  Backlog para el proyecto.xlsx
+++ b/Plantilla Product  Backlog para el proyecto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisbeth\Documents\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisbeth\Documents\Product-Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37480F48-881C-4FB1-874E-F6356411C64F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B213B55-BB25-4920-90DE-769BC76CBE21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Sprint</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Registrar el inventario de donaciones de activo fijo</t>
+  </si>
+  <si>
+    <t>sprint</t>
   </si>
 </sst>
 </file>
@@ -669,6 +672,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -686,9 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,7 +1361,7 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1395,14 +1398,14 @@
       </c>
     </row>
     <row r="2" spans="1:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -1421,14 +1424,14 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -1469,20 +1472,20 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="49" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="44"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1749,7 +1752,9 @@
         <v>44</v>
       </c>
       <c r="B14" s="40"/>
-      <c r="C14" s="55"/>
+      <c r="C14" s="49" t="s">
+        <v>58</v>
+      </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -3073,60 +3078,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3271,13 +3231,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3287,22 +3292,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3320,10 +3317,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
